--- a/elaboration/appendices/comparison_online_api.xlsx
+++ b/elaboration/appendices/comparison_online_api.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/felix_lehnerer_bwedu_de/Documents/InformatiCUP/Auswertung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyRegister\Dateien\DHBW\InformatiCUP\spe-ed-java\elaboration\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2424" documentId="8_{F08EBFF0-BFE3-4F2C-9003-8CC6561EFEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C006387-D84E-4D8F-AED1-9AA5D7970285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C3270-6ED3-4AB6-B8F0-65AFA25FE3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4080" yWindow="0" windowWidth="22230" windowHeight="14940" activeTab="2" xr2:uid="{CC610EFB-1C59-4E89-8FD9-BFF65191D2A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC610EFB-1C59-4E89-8FD9-BFF65191D2A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiele" sheetId="2" r:id="rId1"/>
     <sheet name="Auswertung - Teams" sheetId="4" r:id="rId2"/>
     <sheet name="Auswertung - Platzierung" sheetId="3" r:id="rId3"/>
-    <sheet name="Auswertung - Teams (veraltet)" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -149,37 +148,10 @@
     <t>neg. deadline</t>
   </si>
   <si>
-    <t>lehnurr_speed_202101132306</t>
-  </si>
-  <si>
     <t>Anonym</t>
   </si>
   <si>
-    <t>lehnurr_speed_202101132319</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101132347</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140017</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140049</t>
-  </si>
-  <si>
     <t>Norm-Exil-Quadratwurzel</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140137</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140141</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140147</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140155</t>
   </si>
   <si>
     <t>deadline&lt;0,5</t>
@@ -188,19 +160,7 @@
     <t>Lied-Diskette-Nussknacker</t>
   </si>
   <si>
-    <t>lehnurr_speed_202101140305</t>
-  </si>
-  <si>
-    <t>ganz komisches verhalten von uns</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140423</t>
-  </si>
-  <si>
     <t>Absturz (RAM)</t>
-  </si>
-  <si>
-    <t>lehnurr_speed_202101140507</t>
   </si>
   <si>
     <t>Anonyom</t>
@@ -330,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,14 +353,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Seoge UI"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Seoge UI"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -644,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -777,21 +729,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,6 +805,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -2033,753 +1980,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Besser</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$Q$5:$Q$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA66-4284-A44D-AE9AB0CEFA13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$R$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gleich</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$R$5:$R$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA66-4284-A44D-AE9AB0CEFA13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$S$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Schlechter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Auswertung - Teams (veraltet)'!$S$5:$S$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA66-4284-A44D-AE9AB0CEFA13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="800870648"/>
-        <c:axId val="800872944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="800870648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="800872944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="800872944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="800870648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2821,46 +2021,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3924,511 +3084,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4691,47 +3346,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2677CF3B-C78B-4A9D-83A2-8627D903DEFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="InformatiCup">
   <a:themeElements>
@@ -4937,9 +3551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AC733-A349-4516-9106-C75980B59F6E}">
   <dimension ref="B1:M219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6006,7 +4620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="15">
+    <row r="65" spans="2:10" ht="15">
       <c r="B65" s="67"/>
       <c r="E65" s="69"/>
       <c r="F65" s="69"/>
@@ -6014,133 +4628,130 @@
       <c r="H65" s="70"/>
       <c r="I65" s="70"/>
     </row>
-    <row r="66" spans="2:12" ht="15">
-      <c r="B66" s="95">
+    <row r="66" spans="2:10" ht="15">
+      <c r="B66" s="88">
         <v>12</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97" t="s">
+      <c r="C66" s="89"/>
+      <c r="D66" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="97">
+      <c r="E66" s="90">
         <v>95</v>
       </c>
-      <c r="F66" s="97">
+      <c r="F66" s="90">
         <v>5</v>
       </c>
-      <c r="G66" s="98"/>
-      <c r="H66" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="100" t="s">
+      <c r="G66" s="91"/>
+      <c r="H66" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="101"/>
-      <c r="L66" t="s">
+      <c r="J66" s="94"/>
+    </row>
+    <row r="67" spans="2:10" ht="15">
+      <c r="B67" s="95"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="96" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" ht="15">
-      <c r="B67" s="102"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="103">
+      <c r="E67" s="96">
         <v>15</v>
       </c>
-      <c r="F67" s="103">
+      <c r="F67" s="96">
         <v>6</v>
       </c>
-      <c r="G67" s="96"/>
-      <c r="H67" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="105"/>
-    </row>
-    <row r="68" spans="2:12" ht="15">
-      <c r="B68" s="102"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="103" t="s">
+      <c r="G67" s="89"/>
+      <c r="H67" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="98"/>
+    </row>
+    <row r="68" spans="2:10" ht="15">
+      <c r="B68" s="95"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="103" t="s">
+      <c r="F68" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="96"/>
-      <c r="H68" s="104" t="s">
+      <c r="G68" s="89"/>
+      <c r="H68" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="104"/>
-      <c r="J68" s="105"/>
-    </row>
-    <row r="69" spans="2:12" ht="15">
-      <c r="B69" s="102"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="103" t="s">
+      <c r="I68" s="97"/>
+      <c r="J68" s="98"/>
+    </row>
+    <row r="69" spans="2:10" ht="15">
+      <c r="B69" s="95"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="103" t="s">
+      <c r="F69" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="96"/>
-      <c r="H69" s="104" t="s">
+      <c r="G69" s="89"/>
+      <c r="H69" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="104"/>
-      <c r="J69" s="105"/>
-    </row>
-    <row r="70" spans="2:12" ht="15">
-      <c r="B70" s="102"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="103" t="s">
+      <c r="I69" s="97"/>
+      <c r="J69" s="98"/>
+    </row>
+    <row r="70" spans="2:10" ht="15">
+      <c r="B70" s="95"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="103" t="s">
+      <c r="F70" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="96"/>
-      <c r="H70" s="104" t="s">
+      <c r="G70" s="89"/>
+      <c r="H70" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I70" s="104"/>
-      <c r="J70" s="105"/>
-    </row>
-    <row r="71" spans="2:12" ht="15">
-      <c r="B71" s="102"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="103" t="s">
+      <c r="I70" s="97"/>
+      <c r="J70" s="98"/>
+    </row>
+    <row r="71" spans="2:10" ht="15">
+      <c r="B71" s="95"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="103" t="s">
+      <c r="F71" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G71" s="96"/>
-      <c r="H71" s="104" t="s">
+      <c r="G71" s="89"/>
+      <c r="H71" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="104"/>
-      <c r="J71" s="105"/>
-    </row>
-    <row r="72" spans="2:12" ht="15">
+      <c r="I71" s="97"/>
+      <c r="J71" s="98"/>
+    </row>
+    <row r="72" spans="2:10" ht="15">
       <c r="B72" s="67"/>
     </row>
-    <row r="73" spans="2:12" ht="15">
+    <row r="73" spans="2:10" ht="15">
       <c r="B73" s="68">
         <v>13</v>
       </c>
@@ -6161,11 +4772,8 @@
       <c r="J73" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="15">
+    </row>
+    <row r="74" spans="2:10" ht="15">
       <c r="B74" s="67"/>
       <c r="D74" s="61" t="s">
         <v>12</v>
@@ -6184,7 +4792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="15">
+    <row r="75" spans="2:10" ht="15">
       <c r="B75" s="67"/>
       <c r="D75" s="61" t="s">
         <v>14</v>
@@ -6201,7 +4809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="15">
+    <row r="76" spans="2:10" ht="15">
       <c r="B76" s="67"/>
       <c r="D76" s="61" t="s">
         <v>34</v>
@@ -6218,7 +4826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="15">
+    <row r="77" spans="2:10" ht="15">
       <c r="B77" s="67"/>
       <c r="D77" s="61" t="s">
         <v>21</v>
@@ -6235,10 +4843,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="15">
+    <row r="78" spans="2:10" ht="15">
       <c r="B78" s="67"/>
     </row>
-    <row r="79" spans="2:12" ht="15">
+    <row r="79" spans="2:10" ht="15">
       <c r="B79" s="68">
         <v>14</v>
       </c>
@@ -6258,11 +4866,8 @@
       <c r="J79" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="15">
+    </row>
+    <row r="80" spans="2:10" ht="15">
       <c r="B80" s="67"/>
       <c r="D80" s="60" t="s">
         <v>7</v>
@@ -6282,7 +4887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="15">
+    <row r="81" spans="2:10" ht="15">
       <c r="B81" s="67"/>
       <c r="D81" s="61" t="s">
         <v>14</v>
@@ -6299,10 +4904,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="15">
+    <row r="82" spans="2:10" ht="15">
       <c r="B82" s="67"/>
     </row>
-    <row r="83" spans="2:12" ht="15">
+    <row r="83" spans="2:10" ht="15">
       <c r="B83" s="68">
         <v>15</v>
       </c>
@@ -6324,11 +4929,8 @@
       <c r="J83" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="15">
+    </row>
+    <row r="84" spans="2:10" ht="15">
       <c r="B84" s="67"/>
       <c r="D84" s="61" t="s">
         <v>23</v>
@@ -6345,7 +4947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="15">
+    <row r="85" spans="2:10" ht="15">
       <c r="B85" s="67"/>
       <c r="D85" s="61" t="s">
         <v>26</v>
@@ -6364,7 +4966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="15">
+    <row r="86" spans="2:10" ht="15">
       <c r="B86" s="67"/>
       <c r="D86" s="61" t="s">
         <v>20</v>
@@ -6383,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="15">
+    <row r="87" spans="2:10" ht="15">
       <c r="B87" s="67"/>
       <c r="D87" s="60" t="s">
         <v>7</v>
@@ -6403,7 +5005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="15">
+    <row r="88" spans="2:10" ht="15">
       <c r="B88" s="67"/>
       <c r="D88" s="61" t="s">
         <v>34</v>
@@ -6420,10 +5022,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="15">
+    <row r="89" spans="2:10" ht="15">
       <c r="B89" s="67"/>
     </row>
-    <row r="90" spans="2:12" ht="15">
+    <row r="90" spans="2:10" ht="15">
       <c r="B90" s="68">
         <v>16</v>
       </c>
@@ -6441,11 +5043,8 @@
       <c r="J90" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L90" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" ht="15">
+    </row>
+    <row r="91" spans="2:10" ht="15">
       <c r="B91" s="67"/>
       <c r="D91" s="61" t="s">
         <v>30</v>
@@ -6464,7 +5063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15">
+    <row r="92" spans="2:10" ht="15">
       <c r="B92" s="67"/>
       <c r="D92" s="61" t="s">
         <v>26</v>
@@ -6483,7 +5082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15">
+    <row r="93" spans="2:10" ht="15">
       <c r="B93" s="67"/>
       <c r="D93" s="61" t="s">
         <v>23</v>
@@ -6502,7 +5101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="15">
+    <row r="94" spans="2:10" ht="15">
       <c r="B94" s="67"/>
       <c r="D94" s="60" t="s">
         <v>7</v>
@@ -6522,10 +5121,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="15">
+    <row r="95" spans="2:10" ht="15">
       <c r="B95" s="67"/>
       <c r="D95" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E95" s="61">
         <v>4</v>
@@ -6543,162 +5142,156 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="15">
+    <row r="96" spans="2:10" ht="15">
       <c r="B96" s="67"/>
     </row>
-    <row r="97" spans="2:12" ht="15">
-      <c r="B97" s="95">
+    <row r="97" spans="2:10" ht="15">
+      <c r="B97" s="88">
         <v>17</v>
       </c>
-      <c r="C97" s="96"/>
-      <c r="D97" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="106">
+      <c r="C97" s="89"/>
+      <c r="D97" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="99">
         <v>52</v>
       </c>
-      <c r="F97" s="106">
+      <c r="F97" s="99">
         <v>2.5</v>
       </c>
-      <c r="G97" s="96"/>
-      <c r="H97" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="104"/>
-      <c r="J97" s="105"/>
-      <c r="L97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" ht="15">
-      <c r="B98" s="102"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="97" t="s">
+      <c r="G97" s="89"/>
+      <c r="H97" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="97"/>
+      <c r="J97" s="98"/>
+    </row>
+    <row r="98" spans="2:10" ht="15">
+      <c r="B98" s="95"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="97">
+      <c r="E98" s="90">
         <v>52</v>
       </c>
-      <c r="F98" s="97">
+      <c r="F98" s="90">
         <v>2.5</v>
       </c>
-      <c r="G98" s="98"/>
-      <c r="H98" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="99" t="s">
+      <c r="G98" s="91"/>
+      <c r="H98" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J98" s="101"/>
-    </row>
-    <row r="99" spans="2:12" ht="15">
-      <c r="B99" s="102"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="106" t="s">
+      <c r="J98" s="94"/>
+    </row>
+    <row r="99" spans="2:10" ht="15">
+      <c r="B99" s="95"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="106">
+      <c r="E99" s="99">
         <v>53</v>
       </c>
-      <c r="F99" s="106">
-        <v>1</v>
-      </c>
-      <c r="G99" s="96"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="104"/>
-      <c r="J99" s="105"/>
-    </row>
-    <row r="100" spans="2:12" ht="15">
+      <c r="F99" s="99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="89"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="98"/>
+    </row>
+    <row r="100" spans="2:10" ht="15">
       <c r="B100" s="67"/>
     </row>
-    <row r="101" spans="2:12" ht="15">
-      <c r="B101" s="95">
+    <row r="101" spans="2:10" ht="15">
+      <c r="B101" s="88">
         <v>18</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="103">
+      <c r="C101" s="89"/>
+      <c r="D101" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="96">
         <v>328</v>
       </c>
-      <c r="F101" s="103">
-        <v>1</v>
-      </c>
-      <c r="G101" s="96"/>
-      <c r="H101" s="104" t="s">
+      <c r="F101" s="96">
+        <v>1</v>
+      </c>
+      <c r="G101" s="89"/>
+      <c r="H101" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I101" s="104"/>
-      <c r="J101" s="105"/>
-      <c r="L101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" ht="15">
-      <c r="B102" s="102"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="97" t="s">
+      <c r="I101" s="97"/>
+      <c r="J101" s="98"/>
+    </row>
+    <row r="102" spans="2:10" ht="15">
+      <c r="B102" s="95"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="97">
+      <c r="E102" s="90">
         <v>29</v>
       </c>
-      <c r="F102" s="97">
+      <c r="F102" s="90">
         <v>4</v>
       </c>
-      <c r="G102" s="98"/>
-      <c r="H102" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="99" t="s">
+      <c r="G102" s="91"/>
+      <c r="H102" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J102" s="101"/>
-    </row>
-    <row r="103" spans="2:12" ht="15">
-      <c r="B103" s="102"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="103" t="s">
+      <c r="J102" s="94"/>
+    </row>
+    <row r="103" spans="2:10" ht="15">
+      <c r="B103" s="95"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="103">
+      <c r="E103" s="96">
         <v>35</v>
       </c>
-      <c r="F103" s="103">
+      <c r="F103" s="96">
         <v>3</v>
       </c>
-      <c r="G103" s="96"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="104"/>
-      <c r="J103" s="105"/>
-    </row>
-    <row r="104" spans="2:12" ht="15">
-      <c r="B104" s="102"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="103" t="s">
+      <c r="G103" s="89"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="97"/>
+      <c r="J103" s="98"/>
+    </row>
+    <row r="104" spans="2:10" ht="15">
+      <c r="B104" s="95"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E104" s="103">
+      <c r="E104" s="96">
         <v>327</v>
       </c>
-      <c r="F104" s="103">
+      <c r="F104" s="96">
         <v>2</v>
       </c>
-      <c r="G104" s="96"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="105"/>
-    </row>
-    <row r="105" spans="2:12" ht="15">
+      <c r="G104" s="89"/>
+      <c r="H104" s="97"/>
+      <c r="I104" s="97"/>
+      <c r="J104" s="98"/>
+    </row>
+    <row r="105" spans="2:10" ht="15">
       <c r="B105" s="67"/>
     </row>
-    <row r="106" spans="2:12" ht="15">
+    <row r="106" spans="2:10" ht="15">
       <c r="B106" s="68">
         <v>19</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E106" s="61">
         <v>31</v>
@@ -6713,11 +5306,8 @@
       <c r="J106" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" ht="15">
+    </row>
+    <row r="107" spans="2:10" ht="15">
       <c r="B107" s="67"/>
       <c r="D107" s="60" t="s">
         <v>7</v>
@@ -6737,7 +5327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="15">
+    <row r="108" spans="2:10" ht="15">
       <c r="B108" s="67"/>
       <c r="D108" s="61" t="s">
         <v>31</v>
@@ -6756,127 +5346,124 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="15">
+    <row r="109" spans="2:10" ht="15">
       <c r="B109" s="67"/>
     </row>
-    <row r="110" spans="2:12" ht="15">
-      <c r="B110" s="95">
+    <row r="110" spans="2:10" ht="15">
+      <c r="B110" s="88">
         <v>20</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="103" t="s">
+      <c r="C110" s="89"/>
+      <c r="D110" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="103">
+      <c r="E110" s="96">
         <v>422</v>
       </c>
-      <c r="F110" s="103">
-        <v>1</v>
-      </c>
-      <c r="G110" s="96"/>
-      <c r="H110" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="104"/>
-      <c r="J110" s="105"/>
-      <c r="L110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" ht="15">
-      <c r="B111" s="102"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="97" t="s">
+      <c r="F110" s="96">
+        <v>1</v>
+      </c>
+      <c r="G110" s="89"/>
+      <c r="H110" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="97"/>
+      <c r="J110" s="98"/>
+    </row>
+    <row r="111" spans="2:10" ht="15">
+      <c r="B111" s="95"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="97">
+      <c r="E111" s="90">
         <v>421</v>
       </c>
-      <c r="F111" s="97">
+      <c r="F111" s="90">
         <v>2</v>
       </c>
-      <c r="G111" s="98"/>
-      <c r="H111" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="J111" s="101"/>
-    </row>
-    <row r="112" spans="2:12" ht="15">
-      <c r="B112" s="102"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="103" t="s">
+      <c r="G111" s="91"/>
+      <c r="H111" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="94"/>
+    </row>
+    <row r="112" spans="2:10" ht="15">
+      <c r="B112" s="95"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E112" s="103">
+      <c r="E112" s="96">
         <v>72</v>
       </c>
-      <c r="F112" s="103">
+      <c r="F112" s="96">
         <v>5</v>
       </c>
-      <c r="G112" s="96"/>
-      <c r="H112" s="104" t="s">
+      <c r="G112" s="89"/>
+      <c r="H112" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I112" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="J112" s="105"/>
+      <c r="I112" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="98"/>
     </row>
     <row r="113" spans="2:12" ht="15">
-      <c r="B113" s="102"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="103">
+      <c r="B113" s="95"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="96">
         <v>70</v>
       </c>
-      <c r="F113" s="103">
+      <c r="F113" s="96">
         <v>6</v>
       </c>
-      <c r="G113" s="96"/>
-      <c r="H113" s="104" t="s">
+      <c r="G113" s="89"/>
+      <c r="H113" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="I113" s="104"/>
-      <c r="J113" s="105"/>
+      <c r="I113" s="97"/>
+      <c r="J113" s="98"/>
     </row>
     <row r="114" spans="2:12" ht="15">
-      <c r="B114" s="102"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="103" t="s">
+      <c r="B114" s="95"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E114" s="103">
+      <c r="E114" s="96">
         <v>91</v>
       </c>
-      <c r="F114" s="103">
+      <c r="F114" s="96">
         <v>4</v>
       </c>
-      <c r="G114" s="96"/>
-      <c r="H114" s="104"/>
-      <c r="I114" s="104"/>
-      <c r="J114" s="105"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="97"/>
+      <c r="I114" s="97"/>
+      <c r="J114" s="98"/>
     </row>
     <row r="115" spans="2:12" ht="15">
-      <c r="B115" s="102"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="103" t="s">
+      <c r="B115" s="95"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="103">
+      <c r="E115" s="96">
         <v>255</v>
       </c>
-      <c r="F115" s="103">
+      <c r="F115" s="96">
         <v>3</v>
       </c>
-      <c r="G115" s="96"/>
-      <c r="H115" s="104"/>
-      <c r="I115" s="104"/>
-      <c r="J115" s="105"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="97"/>
+      <c r="I115" s="97"/>
+      <c r="J115" s="98"/>
     </row>
     <row r="116" spans="2:12" ht="15">
       <c r="B116" s="67"/>
@@ -6886,7 +5473,7 @@
         <v>21</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E117" s="61">
         <v>1</v>
@@ -6902,9 +5489,6 @@
       </c>
       <c r="J117" s="63" t="s">
         <v>8</v>
-      </c>
-      <c r="L117" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="15">
@@ -6927,7 +5511,7 @@
     <row r="119" spans="2:12" ht="15">
       <c r="B119" s="67"/>
       <c r="D119" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E119" s="61">
         <v>25</v>
@@ -6979,9 +5563,7 @@
       <c r="J121" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L121" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="L121" s="15"/>
     </row>
     <row r="122" spans="2:12" ht="15">
       <c r="B122" s="67"/>
@@ -7024,9 +5606,6 @@
       <c r="J124" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L124" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="125" spans="2:12" ht="15">
       <c r="B125" s="67"/>
@@ -7098,99 +5677,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="15">
+    <row r="129" spans="2:10" ht="15">
       <c r="B129" s="67"/>
     </row>
-    <row r="130" spans="2:12" ht="15">
-      <c r="B130" s="95">
+    <row r="130" spans="2:10" ht="15">
+      <c r="B130" s="88">
         <v>23</v>
       </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="97" t="s">
+      <c r="C130" s="89"/>
+      <c r="D130" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="97">
+      <c r="E130" s="90">
         <v>69</v>
       </c>
-      <c r="F130" s="97">
+      <c r="F130" s="90">
         <v>3</v>
       </c>
-      <c r="G130" s="98"/>
-      <c r="H130" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="J130" s="101"/>
-      <c r="L130" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" ht="15">
-      <c r="B131" s="102"/>
-      <c r="C131" s="96"/>
-      <c r="D131" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E131" s="103">
+      <c r="G130" s="91"/>
+      <c r="H130" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="J130" s="94"/>
+    </row>
+    <row r="131" spans="2:10" ht="15">
+      <c r="B131" s="95"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" s="96">
         <v>39</v>
       </c>
-      <c r="F131" s="103">
+      <c r="F131" s="96">
         <v>5</v>
       </c>
-      <c r="G131" s="96"/>
-      <c r="H131" s="104"/>
-      <c r="I131" s="104"/>
-      <c r="J131" s="105"/>
-    </row>
-    <row r="132" spans="2:12" ht="15">
-      <c r="B132" s="102"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E132" s="103">
+      <c r="G131" s="89"/>
+      <c r="H131" s="97"/>
+      <c r="I131" s="97"/>
+      <c r="J131" s="98"/>
+    </row>
+    <row r="132" spans="2:10" ht="15">
+      <c r="B132" s="95"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" s="96">
         <v>41</v>
       </c>
-      <c r="F132" s="103">
+      <c r="F132" s="96">
         <v>4</v>
       </c>
-      <c r="G132" s="96"/>
-      <c r="H132" s="104"/>
-      <c r="I132" s="104"/>
-      <c r="J132" s="105"/>
-    </row>
-    <row r="133" spans="2:12" ht="15">
-      <c r="B133" s="102"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E133" s="103"/>
-      <c r="F133" s="103"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="104"/>
-      <c r="I133" s="104"/>
-      <c r="J133" s="105"/>
-    </row>
-    <row r="134" spans="2:12" ht="15">
-      <c r="B134" s="102"/>
-      <c r="C134" s="96"/>
-      <c r="D134" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="103"/>
-      <c r="F134" s="103"/>
-      <c r="G134" s="96"/>
-      <c r="H134" s="104"/>
-      <c r="I134" s="104"/>
-      <c r="J134" s="105"/>
-    </row>
-    <row r="135" spans="2:12" ht="15">
+      <c r="G132" s="89"/>
+      <c r="H132" s="97"/>
+      <c r="I132" s="97"/>
+      <c r="J132" s="98"/>
+    </row>
+    <row r="133" spans="2:10" ht="15">
+      <c r="B133" s="95"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="89"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="98"/>
+    </row>
+    <row r="134" spans="2:10" ht="15">
+      <c r="B134" s="95"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="96"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="89"/>
+      <c r="H134" s="97"/>
+      <c r="I134" s="97"/>
+      <c r="J134" s="98"/>
+    </row>
+    <row r="135" spans="2:10" ht="15">
       <c r="B135" s="67"/>
     </row>
-    <row r="136" spans="2:12" ht="15">
+    <row r="136" spans="2:10" ht="15">
       <c r="B136" s="68">
         <v>24</v>
       </c>
@@ -7211,7 +5787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="15">
+    <row r="137" spans="2:10" ht="15">
       <c r="B137" s="67"/>
       <c r="D137" s="64" t="s">
         <v>23</v>
@@ -7229,10 +5805,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="15">
+    <row r="138" spans="2:10" ht="15">
       <c r="B138" s="67"/>
       <c r="D138" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E138" s="61">
         <v>438</v>
@@ -7248,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="15">
+    <row r="139" spans="2:10" ht="15">
       <c r="B139" s="67"/>
       <c r="D139" s="60" t="s">
         <v>7</v>
@@ -7268,10 +5844,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="15">
+    <row r="140" spans="2:10" ht="15">
       <c r="B140" s="67"/>
     </row>
-    <row r="141" spans="2:12" ht="15">
+    <row r="141" spans="2:10" ht="15">
       <c r="B141" s="68">
         <v>25</v>
       </c>
@@ -7293,7 +5869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="15">
+    <row r="142" spans="2:10" ht="15">
       <c r="B142" s="67"/>
       <c r="D142" s="73" t="s">
         <v>35</v>
@@ -7315,70 +5891,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="15" customHeight="1">
+    <row r="144" spans="2:10" ht="15" customHeight="1">
       <c r="B144" s="19">
         <v>26</v>
       </c>
       <c r="C144" s="20"/>
-      <c r="D144" s="77" t="s">
+      <c r="D144" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="77">
+      <c r="E144" s="3">
         <v>353</v>
       </c>
-      <c r="F144" s="77">
-        <v>1</v>
-      </c>
-      <c r="G144" s="76"/>
-      <c r="H144" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I144" s="79"/>
-      <c r="J144" s="80" t="s">
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="120"/>
+      <c r="H144" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="121"/>
+      <c r="J144" s="122" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="15" customHeight="1">
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
-      <c r="D145" s="78" t="s">
+      <c r="D145" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="78">
+      <c r="E145" s="10">
         <v>353</v>
       </c>
-      <c r="F145" s="78">
+      <c r="F145" s="10">
         <v>2</v>
       </c>
-      <c r="G145" s="67"/>
-      <c r="H145" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="I145" s="81"/>
-      <c r="J145" s="82" t="s">
+      <c r="G145" s="13"/>
+      <c r="H145" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="26"/>
+      <c r="J145" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1">
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
-      <c r="D146" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E146" s="78">
+      <c r="D146" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" s="10">
         <v>2</v>
       </c>
-      <c r="F146" s="78">
+      <c r="F146" s="10">
         <v>3</v>
       </c>
-      <c r="G146" s="67"/>
-      <c r="H146" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="J146" s="82" t="s">
+      <c r="G146" s="13"/>
+      <c r="H146" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="123" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7387,7 +5963,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E148" s="61">
         <v>3</v>
@@ -7446,18 +6022,18 @@
     </row>
     <row r="151" spans="2:10" ht="15">
       <c r="B151" s="67"/>
-      <c r="D151" s="85" t="s">
+      <c r="D151" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="85">
+      <c r="E151" s="78">
         <v>78</v>
       </c>
-      <c r="F151" s="85">
+      <c r="F151" s="78">
         <v>3</v>
       </c>
-      <c r="H151" s="83"/>
-      <c r="I151" s="83"/>
-      <c r="J151" s="84" t="s">
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="77" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7466,36 +6042,36 @@
       <c r="D152" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="86">
+      <c r="E152" s="79">
         <v>25</v>
       </c>
-      <c r="F152" s="86">
+      <c r="F152" s="79">
         <v>5</v>
       </c>
       <c r="G152" s="31"/>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
-      <c r="J152" s="87" t="s">
+      <c r="J152" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="153" spans="2:10" ht="15">
       <c r="B153" s="67"/>
-      <c r="D153" s="88" t="s">
+      <c r="D153" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="88">
+      <c r="E153" s="81">
         <v>465</v>
       </c>
-      <c r="F153" s="88">
+      <c r="F153" s="81">
         <v>2</v>
       </c>
       <c r="G153" s="31"/>
-      <c r="H153" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="I153" s="89"/>
-      <c r="J153" s="90" t="s">
+      <c r="H153" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="82"/>
+      <c r="J153" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7504,7 +6080,7 @@
         <v>28</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E155" s="61">
         <v>9</v>
@@ -7523,7 +6099,7 @@
     <row r="156" spans="2:10" ht="15">
       <c r="B156" s="67"/>
       <c r="D156" s="73" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E156" s="73">
         <v>0</v>
@@ -7545,7 +6121,7 @@
     <row r="157" spans="2:10" ht="15">
       <c r="B157" s="67"/>
       <c r="D157" s="61" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E157" s="61">
         <v>783</v>
@@ -7563,27 +6139,27 @@
     </row>
     <row r="158" spans="2:10" ht="15">
       <c r="B158" s="67"/>
-      <c r="D158" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E158" s="85">
+      <c r="D158" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E158" s="78">
         <v>16</v>
       </c>
-      <c r="F158" s="85">
+      <c r="F158" s="78">
         <v>4</v>
       </c>
-      <c r="H158" s="83" t="s">
+      <c r="H158" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I158" s="83"/>
-      <c r="J158" s="84" t="s">
+      <c r="I158" s="76"/>
+      <c r="J158" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="2:10" ht="15">
       <c r="B159" s="67"/>
       <c r="D159" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E159" s="60">
         <v>782</v>
@@ -7602,21 +6178,21 @@
     </row>
     <row r="160" spans="2:10" ht="15">
       <c r="B160" s="67"/>
-      <c r="D160" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="88">
+      <c r="D160" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" s="81">
         <v>166</v>
       </c>
-      <c r="F160" s="88">
+      <c r="F160" s="81">
         <v>3</v>
       </c>
       <c r="G160" s="31"/>
-      <c r="H160" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="89"/>
-      <c r="J160" s="90" t="s">
+      <c r="H160" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="82"/>
+      <c r="J160" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7625,7 +6201,7 @@
         <v>29</v>
       </c>
       <c r="D162" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E162" s="60">
         <v>458</v>
@@ -7645,7 +6221,7 @@
     <row r="163" spans="2:10" ht="15">
       <c r="B163" s="67"/>
       <c r="D163" s="73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E163" s="73">
         <v>0</v>
@@ -7667,7 +6243,7 @@
     <row r="164" spans="2:10" ht="15">
       <c r="B164" s="67"/>
       <c r="D164" s="73" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E164" s="73">
         <v>457</v>
@@ -7686,28 +6262,28 @@
     </row>
     <row r="165" spans="2:10" ht="15">
       <c r="B165" s="67"/>
-      <c r="D165" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E165" s="91">
+      <c r="D165" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E165" s="84">
         <v>238</v>
       </c>
-      <c r="F165" s="91">
+      <c r="F165" s="84">
         <v>4</v>
       </c>
       <c r="G165" s="31"/>
-      <c r="H165" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I165" s="92"/>
-      <c r="J165" s="93" t="s">
+      <c r="H165" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="85"/>
+      <c r="J165" s="86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="15">
       <c r="B166" s="67"/>
       <c r="D166" s="73" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E166" s="73">
         <v>45</v>
@@ -7724,19 +6300,19 @@
     </row>
     <row r="167" spans="2:10" ht="15">
       <c r="B167" s="67"/>
-      <c r="D167" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="E167" s="88">
+      <c r="D167" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" s="81">
         <v>248</v>
       </c>
-      <c r="F167" s="88">
+      <c r="F167" s="81">
         <v>3</v>
       </c>
       <c r="G167" s="31"/>
-      <c r="H167" s="89"/>
-      <c r="I167" s="89"/>
-      <c r="J167" s="90" t="s">
+      <c r="H167" s="82"/>
+      <c r="I167" s="82"/>
+      <c r="J167" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7745,7 +6321,7 @@
         <v>30</v>
       </c>
       <c r="D169" s="73" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E169" s="73">
         <v>49</v>
@@ -7765,7 +6341,7 @@
     <row r="170" spans="2:10" ht="15">
       <c r="B170" s="67"/>
       <c r="D170" s="73" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E170" s="73">
         <v>0</v>
@@ -7787,7 +6363,7 @@
     <row r="171" spans="2:10" ht="15">
       <c r="B171" s="67"/>
       <c r="D171" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E171" s="60">
         <v>209</v>
@@ -7806,28 +6382,28 @@
     </row>
     <row r="172" spans="2:10" ht="15">
       <c r="B172" s="67"/>
-      <c r="D172" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E172" s="91">
+      <c r="D172" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="84">
         <v>208</v>
       </c>
-      <c r="F172" s="91">
+      <c r="F172" s="84">
         <v>2</v>
       </c>
       <c r="G172" s="31"/>
-      <c r="H172" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I172" s="92"/>
-      <c r="J172" s="93" t="s">
+      <c r="H172" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="85"/>
+      <c r="J172" s="86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:10" ht="15">
       <c r="B173" s="67"/>
       <c r="D173" s="73" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E173" s="73">
         <v>24</v>
@@ -7847,7 +6423,7 @@
         <v>31</v>
       </c>
       <c r="D175" s="61" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E175" s="61">
         <v>389</v>
@@ -7864,7 +6440,7 @@
     <row r="176" spans="2:10" ht="15">
       <c r="B176" s="67"/>
       <c r="D176" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E176" s="60">
         <v>390</v>
@@ -7884,7 +6460,7 @@
     <row r="177" spans="2:10" ht="15">
       <c r="B177" s="67"/>
       <c r="D177" s="61" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E177" s="61">
         <v>24</v>
@@ -7903,7 +6479,7 @@
         <v>32</v>
       </c>
       <c r="D179" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E179" s="60">
         <v>230</v>
@@ -7923,7 +6499,7 @@
     <row r="180" spans="2:10" ht="15">
       <c r="B180" s="67"/>
       <c r="D180" s="73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E180" s="73">
         <v>229</v>
@@ -7943,7 +6519,7 @@
     <row r="181" spans="2:10" ht="15">
       <c r="B181" s="67"/>
       <c r="D181" s="73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E181" s="73">
         <v>1</v>
@@ -7967,7 +6543,7 @@
         <v>33</v>
       </c>
       <c r="D183" s="73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E183" s="73">
         <v>8</v>
@@ -7989,7 +6565,7 @@
     <row r="184" spans="2:10" ht="15">
       <c r="B184" s="67"/>
       <c r="D184" s="73" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E184" s="73">
         <v>35</v>
@@ -8007,7 +6583,7 @@
     <row r="185" spans="2:10" ht="15">
       <c r="B185" s="67"/>
       <c r="D185" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E185" s="60">
         <v>652</v>
@@ -8026,26 +6602,26 @@
     </row>
     <row r="186" spans="2:10" ht="15">
       <c r="B186" s="67"/>
-      <c r="D186" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="E186" s="91">
+      <c r="D186" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E186" s="84">
         <v>24</v>
       </c>
-      <c r="F186" s="91">
+      <c r="F186" s="84">
         <v>5</v>
       </c>
       <c r="G186" s="31"/>
-      <c r="H186" s="92"/>
-      <c r="I186" s="92"/>
-      <c r="J186" s="93" t="s">
+      <c r="H186" s="85"/>
+      <c r="I186" s="85"/>
+      <c r="J186" s="86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="15">
       <c r="B187" s="67"/>
       <c r="D187" s="73" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E187" s="73">
         <v>253</v>
@@ -8064,21 +6640,21 @@
     </row>
     <row r="188" spans="2:10" ht="15">
       <c r="B188" s="67"/>
-      <c r="D188" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E188" s="88">
+      <c r="D188" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E188" s="81">
         <v>651</v>
       </c>
-      <c r="F188" s="88">
+      <c r="F188" s="81">
         <v>2</v>
       </c>
       <c r="G188" s="31"/>
-      <c r="H188" s="89" t="s">
+      <c r="H188" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I188" s="89"/>
-      <c r="J188" s="90" t="s">
+      <c r="I188" s="82"/>
+      <c r="J188" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8087,7 +6663,7 @@
         <v>34</v>
       </c>
       <c r="D190" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E190" s="60">
         <v>682</v>
@@ -8107,7 +6683,7 @@
     <row r="191" spans="2:10" ht="15">
       <c r="B191" s="67"/>
       <c r="D191" s="73" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E191" s="73">
         <v>3</v>
@@ -8127,7 +6703,7 @@
     <row r="192" spans="2:10" ht="15">
       <c r="B192" s="67"/>
       <c r="D192" s="73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E192" s="73">
         <v>0</v>
@@ -8148,28 +6724,28 @@
     </row>
     <row r="193" spans="2:10" ht="15">
       <c r="B193" s="67"/>
-      <c r="D193" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E193" s="91">
+      <c r="D193" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E193" s="84">
         <v>681</v>
       </c>
-      <c r="F193" s="91">
+      <c r="F193" s="84">
         <v>2</v>
       </c>
       <c r="G193" s="31"/>
-      <c r="H193" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I193" s="92"/>
-      <c r="J193" s="93" t="s">
+      <c r="H193" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="85"/>
+      <c r="J193" s="86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="194" spans="2:10" ht="15">
       <c r="B194" s="67"/>
       <c r="D194" s="73" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E194" s="73">
         <v>115</v>
@@ -8188,19 +6764,19 @@
     </row>
     <row r="195" spans="2:10" ht="15">
       <c r="B195" s="67"/>
-      <c r="D195" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="E195" s="88">
+      <c r="D195" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E195" s="81">
         <v>24</v>
       </c>
-      <c r="F195" s="88">
+      <c r="F195" s="81">
         <v>4</v>
       </c>
       <c r="G195" s="31"/>
-      <c r="H195" s="89"/>
-      <c r="I195" s="89"/>
-      <c r="J195" s="90" t="s">
+      <c r="H195" s="82"/>
+      <c r="I195" s="82"/>
+      <c r="J195" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8209,7 +6785,7 @@
         <v>35</v>
       </c>
       <c r="D197" s="64" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E197" s="64">
         <v>3</v>
@@ -8231,7 +6807,7 @@
     <row r="198" spans="2:10" ht="15">
       <c r="B198" s="67"/>
       <c r="D198" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E198" s="60">
         <v>500</v>
@@ -8251,7 +6827,7 @@
     <row r="199" spans="2:10" ht="15">
       <c r="B199" s="67"/>
       <c r="D199" s="64" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E199" s="64">
         <v>180</v>
@@ -8271,7 +6847,7 @@
     <row r="200" spans="2:10" ht="15">
       <c r="B200" s="67"/>
       <c r="D200" s="64" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E200" s="64">
         <v>394</v>
@@ -8289,7 +6865,7 @@
     <row r="201" spans="2:10" ht="15">
       <c r="B201" s="67"/>
       <c r="D201" s="73" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E201" s="73">
         <v>499</v>
@@ -8311,7 +6887,7 @@
         <v>36</v>
       </c>
       <c r="D203" s="64" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E203" s="64">
         <v>652</v>
@@ -8331,7 +6907,7 @@
     <row r="204" spans="2:10" ht="15">
       <c r="B204" s="67"/>
       <c r="D204" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E204" s="60">
         <v>653</v>
@@ -8351,7 +6927,7 @@
     <row r="205" spans="2:10" ht="15">
       <c r="B205" s="67"/>
       <c r="D205" s="73" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E205" s="73">
         <v>24</v>
@@ -8371,7 +6947,7 @@
         <v>37</v>
       </c>
       <c r="D207" s="64" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E207" s="64">
         <v>1549</v>
@@ -8391,7 +6967,7 @@
     <row r="208" spans="2:10" ht="15">
       <c r="B208" s="67"/>
       <c r="D208" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E208" s="60">
         <v>1548</v>
@@ -8413,7 +6989,7 @@
         <v>38</v>
       </c>
       <c r="D210" s="64" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E210" s="64">
         <v>186</v>
@@ -8435,7 +7011,7 @@
     <row r="211" spans="2:10" ht="15">
       <c r="B211" s="67"/>
       <c r="D211" s="64" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E211" s="64">
         <v>168</v>
@@ -8455,7 +7031,7 @@
     <row r="212" spans="2:10" ht="15">
       <c r="B212" s="67"/>
       <c r="D212" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E212" s="60">
         <v>187</v>
@@ -8477,9 +7053,9 @@
         <v>39</v>
       </c>
       <c r="D214" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E214" s="111">
+        <v>54</v>
+      </c>
+      <c r="E214" s="104">
         <v>71</v>
       </c>
       <c r="F214" s="64">
@@ -8496,8 +7072,8 @@
     </row>
     <row r="215" spans="2:10" ht="15">
       <c r="B215" s="67"/>
-      <c r="D215" s="112" t="s">
-        <v>68</v>
+      <c r="D215" s="105" t="s">
+        <v>55</v>
       </c>
       <c r="E215" s="73">
         <v>6</v>
@@ -8515,7 +7091,7 @@
     <row r="216" spans="2:10" ht="15">
       <c r="B216" s="67"/>
       <c r="D216" s="64" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E216" s="64">
         <v>567</v>
@@ -8535,7 +7111,7 @@
     <row r="217" spans="2:10" ht="15">
       <c r="B217" s="67"/>
       <c r="D217" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E217" s="60">
         <v>568</v>
@@ -8555,7 +7131,7 @@
     <row r="218" spans="2:10" ht="15">
       <c r="B218" s="67"/>
       <c r="D218" s="73" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E218" s="73">
         <v>408</v>
@@ -8574,21 +7150,21 @@
     </row>
     <row r="219" spans="2:10" ht="15">
       <c r="B219" s="67"/>
-      <c r="D219" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="E219" s="88">
+      <c r="D219" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E219" s="81">
         <v>6</v>
       </c>
-      <c r="F219" s="88">
+      <c r="F219" s="81">
         <v>5</v>
       </c>
       <c r="G219" s="31"/>
-      <c r="H219" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="I219" s="89"/>
-      <c r="J219" s="90" t="s">
+      <c r="H219" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="82"/>
+      <c r="J219" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8632,12 +7208,12 @@
   <sheetData>
     <row r="2" spans="2:25" ht="15">
       <c r="E2" s="33" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="35"/>
       <c r="J2" s="45" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="47"/>
@@ -8648,50 +7224,50 @@
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="38" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="39"/>
       <c r="J3" s="38" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M3" s="39"/>
       <c r="N3" s="38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O3" s="39"/>
       <c r="P3" s="38" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="T3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="W3" s="39"/>
       <c r="X3" s="39" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="39"/>
     </row>
@@ -8726,7 +7302,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="94"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="37"/>
       <c r="J5" s="49">
         <v>9</v>
@@ -8772,7 +7348,7 @@
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
-      <c r="H6" s="94"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="37"/>
       <c r="J6" s="49">
         <v>3</v>
@@ -8818,7 +7394,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="94"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="37"/>
       <c r="J7" s="49">
         <v>5</v>
@@ -8859,14 +7435,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E8" s="40">
         <v>1</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="94"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="37"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
@@ -8905,7 +7481,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E9" s="40">
         <v>2</v>
@@ -8914,7 +7490,7 @@
       <c r="G9" s="40">
         <v>1</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="87">
         <v>1</v>
       </c>
       <c r="I9" s="37"/>
@@ -8962,7 +7538,7 @@
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="94"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="37"/>
       <c r="J10" s="49">
         <v>5</v>
@@ -9001,14 +7577,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E11" s="40">
         <v>5</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="94"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="37"/>
       <c r="J11" s="49">
         <v>5</v>
@@ -9047,12 +7623,12 @@
         <v>8</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="94">
+      <c r="H12" s="87">
         <v>1</v>
       </c>
       <c r="I12" s="37"/>
@@ -9100,7 +7676,7 @@
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="94"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="37"/>
       <c r="J13" s="49">
         <v>1</v>
@@ -9141,14 +7717,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E14" s="40">
         <v>2</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="94"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="37"/>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
@@ -9192,7 +7768,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="94">
+      <c r="H15" s="87">
         <v>2</v>
       </c>
       <c r="I15" s="37"/>
@@ -9238,7 +7814,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="94">
+      <c r="H16" s="87">
         <v>1</v>
       </c>
       <c r="I16" s="37"/>
@@ -9284,7 +7860,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="94">
+      <c r="H17" s="87">
         <v>1</v>
       </c>
       <c r="I17" s="37"/>
@@ -9325,12 +7901,12 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="94">
+      <c r="H18" s="87">
         <v>1</v>
       </c>
       <c r="I18" s="37"/>
@@ -9376,7 +7952,7 @@
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="94">
+      <c r="H19" s="87">
         <v>1</v>
       </c>
       <c r="I19" s="37"/>
@@ -9424,7 +8000,7 @@
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="94">
+      <c r="H20" s="87">
         <v>1</v>
       </c>
       <c r="I20" s="37"/>
@@ -9474,7 +8050,7 @@
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="94"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="37"/>
       <c r="J21" s="49">
         <v>1</v>
@@ -9513,14 +8089,14 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" s="40">
         <v>3</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="94">
+      <c r="H22" s="87">
         <v>1</v>
       </c>
       <c r="I22" s="37"/>
@@ -9563,14 +8139,14 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E23" s="40">
         <v>2</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
-      <c r="H23" s="94"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="37"/>
       <c r="J23" s="49">
         <v>1</v>
@@ -9618,7 +8194,7 @@
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
-      <c r="H24" s="94"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="37"/>
       <c r="J24" s="49">
         <v>1</v>
@@ -9658,7 +8234,7 @@
       <c r="B25" s="38">
         <v>21</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="101" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="40">
@@ -9666,7 +8242,7 @@
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="94"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="37"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49">
@@ -9707,14 +8283,14 @@
         <v>22</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E26" s="40">
         <v>3</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="94"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="37"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49">
@@ -9764,7 +8340,7 @@
       <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="H27" s="94"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="37"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -9802,13 +8378,13 @@
       <c r="B28" s="38">
         <v>24</v>
       </c>
-      <c r="C28" s="114" t="s">
-        <v>65</v>
+      <c r="C28" s="107" t="s">
+        <v>52</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="94">
+      <c r="H28" s="87">
         <v>2</v>
       </c>
       <c r="I28" s="37"/>
@@ -9848,7 +8424,7 @@
       <c r="B29" s="38">
         <v>25</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="101" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="40">
@@ -9856,7 +8432,7 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="94">
+      <c r="H29" s="87">
         <v>3</v>
       </c>
       <c r="I29" s="37"/>
@@ -9898,7 +8474,7 @@
       <c r="B30" s="38">
         <v>26</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="106" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="40">
@@ -9908,7 +8484,7 @@
       <c r="G30" s="40">
         <v>2</v>
       </c>
-      <c r="H30" s="94"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="37"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
@@ -9947,14 +8523,14 @@
         <v>27</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
-      <c r="H31" s="94">
+      <c r="H31" s="87">
         <v>1</v>
       </c>
       <c r="I31" s="37"/>
@@ -9997,7 +8573,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E32" s="40">
         <v>1</v>
@@ -10006,7 +8582,7 @@
       <c r="G32" s="40">
         <v>1</v>
       </c>
-      <c r="H32" s="94"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="37"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
@@ -10044,7 +8620,7 @@
       <c r="B33" s="38">
         <v>29</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="100" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="40">
@@ -10052,7 +8628,7 @@
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
-      <c r="H33" s="94"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="37"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
@@ -10091,14 +8667,14 @@
         <v>30</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E34" s="40">
         <v>1</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="94"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="37"/>
       <c r="J34" s="49"/>
       <c r="K34" s="49">
@@ -10136,15 +8712,15 @@
       <c r="B35" s="38">
         <v>31</v>
       </c>
-      <c r="C35" s="91" t="s">
-        <v>75</v>
+      <c r="C35" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="E35" s="40">
         <v>2</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="37"/>
       <c r="J35" s="49">
         <v>2</v>
@@ -10183,14 +8759,14 @@
         <v>32</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E36" s="40">
         <v>4</v>
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="94"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="37"/>
       <c r="J36" s="49">
         <v>1</v>
@@ -10232,7 +8808,7 @@
       <c r="B37" s="38">
         <v>33</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="108" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="40">
@@ -10240,7 +8816,7 @@
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
-      <c r="H37" s="94"/>
+      <c r="H37" s="87"/>
       <c r="I37" s="37"/>
       <c r="J37" s="49"/>
       <c r="K37" s="49">
@@ -10280,7 +8856,7 @@
       <c r="B38" s="38">
         <v>34</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="100" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="40">
@@ -10288,7 +8864,7 @@
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="94">
+      <c r="H38" s="87">
         <v>1</v>
       </c>
       <c r="I38" s="37"/>
@@ -10329,12 +8905,12 @@
         <v>35</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="94">
+      <c r="H39" s="87">
         <v>3</v>
       </c>
       <c r="I39" s="37"/>
@@ -10375,14 +8951,14 @@
         <v>36</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E40" s="40">
         <v>1</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="87"/>
       <c r="I40" s="37"/>
       <c r="J40" s="49">
         <v>1</v>
@@ -10421,14 +8997,14 @@
         <v>37</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E41" s="40">
         <v>1</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="94">
+      <c r="H41" s="87">
         <v>1</v>
       </c>
       <c r="I41" s="37"/>
@@ -10469,14 +9045,14 @@
         <v>38</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E42" s="40">
         <v>1</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
-      <c r="H42" s="94"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="37"/>
       <c r="J42" s="49"/>
       <c r="K42" s="49">
@@ -10514,15 +9090,15 @@
       <c r="B43" s="38">
         <v>39</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>67</v>
+      <c r="C43" s="81" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="40">
         <v>2</v>
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
-      <c r="H43" s="94">
+      <c r="H43" s="87">
         <v>1</v>
       </c>
       <c r="I43" s="37"/>
@@ -10572,7 +9148,7 @@
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
-      <c r="H44" s="94">
+      <c r="H44" s="87">
         <v>1</v>
       </c>
       <c r="I44" s="37"/>
@@ -10583,75 +9159,75 @@
       <c r="L44" s="49"/>
       <c r="M44" s="37"/>
       <c r="N44" s="40">
-        <f t="shared" ref="N44:N47" si="6">SUM(E44:G44)</f>
+        <f t="shared" ref="N44:N46" si="6">SUM(E44:G44)</f>
         <v>2</v>
       </c>
       <c r="O44" s="37"/>
       <c r="P44" s="41">
-        <f t="shared" ref="P44:P47" si="7">(E44/$N44)</f>
+        <f t="shared" ref="P44:P46" si="7">(E44/$N44)</f>
         <v>1</v>
       </c>
       <c r="Q44" s="41">
-        <f t="shared" ref="Q44:Q47" si="8">(F44/$N44)</f>
+        <f t="shared" ref="Q44:Q46" si="8">(F44/$N44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="41">
-        <f t="shared" ref="R44:R47" si="9">(G44/$N44)</f>
+        <f t="shared" ref="R44:R46" si="9">(G44/$N44)</f>
         <v>0</v>
       </c>
       <c r="T44" s="48">
-        <f t="shared" ref="T44:T47" si="10">H44/(N44+H44)</f>
+        <f t="shared" ref="T44:T46" si="10">H44/(N44+H44)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="V44" s="48">
-        <f t="shared" ref="V44:V47" si="11">(IF(J44,J44*1,0)+IF(K44,K44*0.5,0))/SUM(J44:L44)</f>
+        <f t="shared" ref="V44:V46" si="11">(IF(J44,J44*1,0)+IF(K44,K44*0.5,0))/SUM(J44:L44)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="15">
-      <c r="B45" s="116">
+      <c r="B45" s="109">
         <v>41</v>
       </c>
-      <c r="C45" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="117">
+      <c r="C45" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="110">
         <v>2</v>
       </c>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="111"/>
       <c r="I45" s="37"/>
-      <c r="J45" s="119">
-        <v>1</v>
-      </c>
-      <c r="K45" s="119">
-        <v>1</v>
-      </c>
-      <c r="L45" s="119"/>
+      <c r="J45" s="112">
+        <v>1</v>
+      </c>
+      <c r="K45" s="112">
+        <v>1</v>
+      </c>
+      <c r="L45" s="112"/>
       <c r="M45" s="37"/>
-      <c r="N45" s="117">
+      <c r="N45" s="110">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O45" s="37"/>
-      <c r="P45" s="120">
+      <c r="P45" s="113">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="120">
+      <c r="Q45" s="113">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R45" s="120">
+      <c r="R45" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T45" s="121">
+      <c r="T45" s="114">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V45" s="121">
+      <c r="V45" s="114">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
@@ -10661,7 +9237,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40">
@@ -10669,7 +9245,7 @@
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="94"/>
+      <c r="H46" s="87"/>
       <c r="I46" s="40"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
@@ -10707,25 +9283,25 @@
     </row>
     <row r="47" spans="2:22" ht="15">
       <c r="B47" s="39"/>
-      <c r="C47" s="122"/>
+      <c r="C47" s="115"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
-      <c r="H47" s="123"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="37"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="125"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
       <c r="S47" s="37"/>
-      <c r="T47" s="126"/>
+      <c r="T47" s="119"/>
       <c r="U47" s="37"/>
-      <c r="V47" s="126"/>
+      <c r="V47" s="119"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:L45">
@@ -10800,7 +9376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5149D6BE-A820-4197-9F37-0ACEB3A7248D}">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -10811,55 +9387,55 @@
   <sheetData>
     <row r="3" spans="2:3" ht="15">
       <c r="B3" s="38" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
-      <c r="B5" s="109" t="s">
-        <v>90</v>
+      <c r="B5" s="102" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15">
-      <c r="B6" s="109" t="s">
-        <v>91</v>
+      <c r="B6" s="102" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15">
-      <c r="B7" s="109" t="s">
-        <v>92</v>
+      <c r="B7" s="102" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="40"/>
     </row>
     <row r="8" spans="2:3" ht="15">
-      <c r="B8" s="109" t="s">
-        <v>93</v>
+      <c r="B8" s="102" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="40"/>
     </row>
     <row r="9" spans="2:3" ht="15">
-      <c r="B9" s="109" t="s">
-        <v>94</v>
+      <c r="B9" s="102" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="40"/>
     </row>
     <row r="10" spans="2:3" ht="15">
-      <c r="B10" s="109" t="s">
-        <v>95</v>
+      <c r="B10" s="102" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="40"/>
     </row>
     <row r="12" spans="2:3" ht="15">
-      <c r="B12" s="110" t="s">
-        <v>84</v>
+      <c r="B12" s="103" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="40">
         <f>SUM(C5:C10)</f>
@@ -10867,1215 +9443,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287268E-3C74-467A-9C4E-43ED89768C40}">
-  <dimension ref="B2:Z25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="C12:S12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11" style="36"/>
-    <col min="2" max="2" width="3.125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="1.75" style="37" customWidth="1"/>
-    <col min="5" max="7" width="11" style="36" customWidth="1"/>
-    <col min="8" max="8" width="1.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="11" style="36" customWidth="1"/>
-    <col min="10" max="10" width="1.125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="4.375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="36" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="1.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="11" style="36"/>
-    <col min="16" max="16" width="1.375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11" style="36"/>
-    <col min="18" max="18" width="11" style="36" customWidth="1"/>
-    <col min="19" max="19" width="11" style="36"/>
-    <col min="20" max="20" width="1.375" style="36" customWidth="1"/>
-    <col min="21" max="21" width="8.875" style="36" customWidth="1"/>
-    <col min="22" max="22" width="1.375" style="36" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:26" ht="15">
-      <c r="E2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="K2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-    </row>
-    <row r="3" spans="2:26" ht="15">
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="39"/>
-    </row>
-    <row r="4" spans="2:26" ht="15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-    </row>
-    <row r="5" spans="2:26" ht="15">
-      <c r="B5" s="38">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="40">
-        <v>2</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="49">
-        <v>1</v>
-      </c>
-      <c r="L5" s="49">
-        <v>1</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="40">
-        <f t="shared" ref="O5:O18" si="0">SUM(E5:G5)</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="41">
-        <f t="shared" ref="Q5:Q18" si="1">(E5/$O5)</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="41">
-        <f t="shared" ref="R5:R18" si="2">(F5/$O5)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
-        <f t="shared" ref="S5:S18" si="3">(G5/$O5)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="48">
-        <f>I5/O5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="48">
-        <f>(IF(K5,K5*1,0)+IF(L5,L5*0.5,0))/SUM(K5:M5)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" ht="15">
-      <c r="B6" s="38">
-        <v>2</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="40">
-        <v>4</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49">
-        <v>2</v>
-      </c>
-      <c r="M6" s="49">
-        <v>4</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="48">
-        <f t="shared" ref="U6:U20" si="4">I6/O6</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="48">
-        <f t="shared" ref="W6:W20" si="5">(IF(K6,K6*1,0)+IF(L6,L6*0.5,0))/SUM(K6:M6)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="15">
-      <c r="B7" s="38">
-        <v>3</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="40">
-        <v>5</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="49">
-        <v>3</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49">
-        <v>2</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="48">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" ht="15">
-      <c r="B8" s="38">
-        <v>4</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="40">
-        <v>2</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="49">
-        <v>2</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="15">
-      <c r="B9" s="38">
-        <v>5</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="40">
-        <v>3</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="49">
-        <v>1</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49">
-        <v>2</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="48">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="15">
-      <c r="B10" s="38">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="40">
-        <v>2</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40">
-        <v>1</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49">
-        <v>3</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="41">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R10" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="41">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U10" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="15">
-      <c r="B11" s="38">
-        <v>7</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="40">
-        <v>6</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="49">
-        <v>6</v>
-      </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" ht="15">
-      <c r="B12" s="38">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40">
-        <v>1</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49">
-        <v>1</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="41">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="15">
-      <c r="B13" s="38">
-        <v>9</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="40">
-        <v>5</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="40">
-        <v>3</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="49">
-        <v>1</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49">
-        <v>4</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="48">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="W13" s="48">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" ht="15">
-      <c r="B14" s="38">
-        <v>10</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="40">
-        <v>1</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49">
-        <v>1</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="15">
-      <c r="B15" s="38">
-        <v>11</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="40">
-        <v>3</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49">
-        <v>3</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="48">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W15" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="15">
-      <c r="B16" s="38">
-        <v>12</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="40">
-        <v>2</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="40">
-        <v>1</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49">
-        <v>1</v>
-      </c>
-      <c r="M16" s="49">
-        <v>1</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="48">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="W16" s="48">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="15">
-      <c r="B17" s="38">
-        <v>13</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="40">
-        <v>1</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="49">
-        <v>1</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15">
-      <c r="B18" s="38">
-        <v>14</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="40">
-        <v>1</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49">
-        <v>1</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="15">
-      <c r="B19" s="38">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="40">
-        <v>2</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49">
-        <v>2</v>
-      </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="40">
-        <f t="shared" ref="O19:O21" si="6">SUM(E19:G19)</f>
-        <v>2</v>
-      </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="41">
-        <f t="shared" ref="Q19:Q20" si="7">(E19/$O19)</f>
-        <v>1</v>
-      </c>
-      <c r="R19" s="41">
-        <f t="shared" ref="R19:R20" si="8">(F19/$O19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="41">
-        <f t="shared" ref="S19:S20" si="9">(G19/$O19)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="48">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="48">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="15">
-      <c r="B20" s="38">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49">
-        <v>1</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="41">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="48">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" ht="15">
-      <c r="B21" s="38">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="40">
-        <v>1</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40">
-        <v>1</v>
-      </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49">
-        <v>1</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="41">
-        <f t="shared" ref="Q21" si="10">(E21/$O21)</f>
-        <v>1</v>
-      </c>
-      <c r="R21" s="41">
-        <f t="shared" ref="R21" si="11">(F21/$O21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="41">
-        <f t="shared" ref="S21" si="12">(G21/$O21)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="48">
-        <f t="shared" ref="U21" si="13">I21/O21</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="48">
-        <f t="shared" ref="W21" si="14">(IF(K21,K21*1,0)+IF(L21,L21*0.5,0))/SUM(K21:M21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="15">
-      <c r="B22" s="38">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="40">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="40">
-        <v>1</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49">
-        <v>1</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="40">
-        <f t="shared" ref="O22" si="15">SUM(E22:G22)</f>
-        <v>1</v>
-      </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="41">
-        <f t="shared" ref="Q22" si="16">(E22/$O22)</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="41">
-        <f t="shared" ref="R22" si="17">(F22/$O22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="41">
-        <f t="shared" ref="S22" si="18">(G22/$O22)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="48">
-        <f t="shared" ref="U22" si="19">I22/O22</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="48">
-        <f t="shared" ref="W22" si="20">(IF(K22,K22*1,0)+IF(L22,L22*0.5,0))/SUM(K22:M22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="15">
-      <c r="B23" s="38">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="40">
-        <v>3</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="49">
-        <v>3</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="40">
-        <f t="shared" ref="O23" si="21">SUM(E23:G23)</f>
-        <v>3</v>
-      </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="41">
-        <f t="shared" ref="Q23" si="22">(E23/$O23)</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="41">
-        <f t="shared" ref="R23" si="23">(F23/$O23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="41">
-        <f t="shared" ref="S23" si="24">(G23/$O23)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="48">
-        <f t="shared" ref="U23" si="25">I23/O23</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="48">
-        <f t="shared" ref="W23" si="26">(IF(K23,K23*1,0)+IF(L23,L23*0.5,0))/SUM(K23:M23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="15">
-      <c r="B24" s="38">
-        <v>20</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="40">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="40">
-        <v>1</v>
-      </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="49">
-        <v>1</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="40">
-        <f t="shared" ref="O24" si="27">SUM(E24:G24)</f>
-        <v>1</v>
-      </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="41">
-        <f t="shared" ref="Q24" si="28">(E24/$O24)</f>
-        <v>1</v>
-      </c>
-      <c r="R24" s="41">
-        <f t="shared" ref="R24" si="29">(F24/$O24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="41">
-        <f t="shared" ref="S24" si="30">(G24/$O24)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="48">
-        <f t="shared" ref="U24" si="31">I24/O24</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="48">
-        <f t="shared" ref="W24" si="32">(IF(K24,K24*1,0)+IF(L24,L24*0.5,0))/SUM(K24:M24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="15">
-      <c r="B25" s="38">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="49">
-        <v>1</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="40">
-        <f t="shared" ref="O25" si="33">SUM(E25:G25)</f>
-        <v>1</v>
-      </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="41">
-        <f t="shared" ref="Q25" si="34">(E25/$O25)</f>
-        <v>1</v>
-      </c>
-      <c r="R25" s="41">
-        <f t="shared" ref="R25" si="35">(F25/$O25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="41">
-        <f t="shared" ref="S25" si="36">(G25/$O25)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="48">
-        <f t="shared" ref="U25" si="37">I25/O25</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="48">
-        <f t="shared" ref="W25" si="38">(IF(K25,K25*1,0)+IF(L25,L25*0.5,0))/SUM(K25:M25)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="Q5:Q25">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R25">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S25">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004386713151D93648B4AC73A652D73E13" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee9cb1dd1b0ef16c6da7dbbb98e43a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63635b49-588b-4a26-9af1-c114a3443bb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9acada1150a78b6c3c1207de48dbad2" ns3:_="">
     <xsd:import namespace="63635b49-588b-4a26-9af1-c114a3443bb8"/>
@@ -12233,22 +9622,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6179F4BC-97E8-451E-959E-9CB2930C5FE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7241F24D-5121-4B4B-A162-4D08F3B03832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95B0BDFF-D45A-4417-8B17-44BB14E630AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12264,21 +9655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7241F24D-5121-4B4B-A162-4D08F3B03832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6179F4BC-97E8-451E-959E-9CB2930C5FE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>